--- a/TestData/AmortTemplateUSA Network.xlsx
+++ b/TestData/AmortTemplateUSA Network.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AmortTemplateGrid!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AmortTemplateSectionGrid!$A$1:$F$235</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="43">
   <si>
     <t>Acquired Movies</t>
   </si>
@@ -144,9 +145,6 @@
     <t>ProjSchedFlag</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Episode</t>
   </si>
   <si>
@@ -159,13 +157,7 @@
     <t>Pilot 80-20</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -187,12 +179,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,10 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +493,7 @@
   <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F235"/>
+      <selection activeCell="C210" sqref="C210:F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
@@ -1515,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>8</v>
@@ -1535,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>8</v>
@@ -1555,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
@@ -2735,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -2755,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -3132,7 +3131,7 @@
         <v>51</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>9</v>
@@ -3152,7 +3151,7 @@
         <v>51</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>9</v>
@@ -3172,7 +3171,7 @@
         <v>51</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>9</v>
@@ -3192,7 +3191,7 @@
         <v>51</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
@@ -3212,7 +3211,7 @@
         <v>51</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>10</v>
@@ -3232,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
@@ -3252,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>10</v>
@@ -3272,7 +3271,7 @@
         <v>51</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>10</v>
@@ -3292,7 +3291,7 @@
         <v>51</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>11</v>
@@ -3312,7 +3311,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>11</v>
@@ -3332,7 +3331,7 @@
         <v>51</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>11</v>
@@ -3352,7 +3351,7 @@
         <v>51</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>11</v>
@@ -3372,7 +3371,7 @@
         <v>51</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -3392,7 +3391,7 @@
         <v>51</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -3412,7 +3411,7 @@
         <v>51</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -3432,7 +3431,7 @@
         <v>51</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -3452,10 +3451,10 @@
         <v>51</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>8</v>
@@ -3472,10 +3471,10 @@
         <v>51</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>8</v>
@@ -3492,10 +3491,10 @@
         <v>51</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>8</v>
@@ -3512,10 +3511,10 @@
         <v>51</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>8</v>
@@ -3532,7 +3531,7 @@
         <v>51</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>12</v>
@@ -3552,7 +3551,7 @@
         <v>51</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>12</v>
@@ -3572,7 +3571,7 @@
         <v>51</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>12</v>
@@ -3592,7 +3591,7 @@
         <v>51</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
@@ -3612,7 +3611,7 @@
         <v>51</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
@@ -3632,7 +3631,7 @@
         <v>51</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
@@ -3652,7 +3651,7 @@
         <v>51</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
@@ -3672,7 +3671,7 @@
         <v>51</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
@@ -3692,7 +3691,7 @@
         <v>51</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>13</v>
@@ -3712,7 +3711,7 @@
         <v>51</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>13</v>
@@ -3732,7 +3731,7 @@
         <v>51</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>13</v>
@@ -3752,7 +3751,7 @@
         <v>51</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>13</v>
@@ -3772,7 +3771,7 @@
         <v>51</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>6</v>
@@ -3792,7 +3791,7 @@
         <v>51</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>6</v>
@@ -3812,7 +3811,7 @@
         <v>51</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>6</v>
@@ -3832,7 +3831,7 @@
         <v>51</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>6</v>
@@ -3852,7 +3851,7 @@
         <v>51</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>7</v>
@@ -3872,7 +3871,7 @@
         <v>51</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>7</v>
@@ -3892,7 +3891,7 @@
         <v>51</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>7</v>
@@ -3912,7 +3911,7 @@
         <v>51</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>7</v>
@@ -3932,7 +3931,7 @@
         <v>51</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
@@ -3952,7 +3951,7 @@
         <v>51</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
@@ -3972,7 +3971,7 @@
         <v>51</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -3992,7 +3991,7 @@
         <v>51</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
@@ -4012,7 +4011,7 @@
         <v>68</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>13</v>
@@ -4032,7 +4031,7 @@
         <v>68</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>13</v>
@@ -4052,7 +4051,7 @@
         <v>68</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>13</v>
@@ -4072,7 +4071,7 @@
         <v>68</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>13</v>
@@ -4215,7 +4214,7 @@
         <v>19</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
@@ -4235,7 +4234,7 @@
         <v>19</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -4612,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -4632,7 +4631,7 @@
         <v>79</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -4652,7 +4651,7 @@
         <v>79</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
@@ -4672,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
@@ -4692,7 +4691,7 @@
         <v>79</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
@@ -4712,7 +4711,7 @@
         <v>79</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
@@ -4732,7 +4731,7 @@
         <v>79</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>5</v>
@@ -4752,7 +4751,7 @@
         <v>79</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>5</v>
@@ -4772,7 +4771,7 @@
         <v>79</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>13</v>
@@ -4792,7 +4791,7 @@
         <v>79</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>13</v>
@@ -4812,7 +4811,7 @@
         <v>79</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>17</v>
@@ -4832,7 +4831,7 @@
         <v>79</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>17</v>
@@ -4852,7 +4851,7 @@
         <v>79</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>6</v>
@@ -4872,7 +4871,7 @@
         <v>79</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>6</v>
@@ -5218,9 +5217,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5278,116 +5279,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>70</v>
+      <c r="A2" s="3">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1">
-        <v>23.333400000000001</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/TestData/AmortTemplateUSA Network.xlsx
+++ b/TestData/AmortTemplateUSA Network.xlsx
@@ -157,7 +157,7 @@
     <t>Pilot 80-20</t>
   </si>
   <si>
-    <t>H</t>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -179,18 +179,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,11 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,9 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C210" sqref="C210:F211"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5220,7 +5211,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5279,23 +5270,23 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>42</v>
@@ -5304,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>43.33</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>28</v>
